--- a/data/output/bases-separadas/-15.xlsx
+++ b/data/output/bases-separadas/-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A101"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,505 +439,1090 @@
           <t>cnpj</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cnae</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>24680380000110</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>02936443000114</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>5547804000129</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>04665790000185</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>26243289000163</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>08874595000116</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>15114882000193</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>07252700000112</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>9596536000358</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>03574310000108</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>24075394000105</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>09372984000106</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>10398609000114</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>03983837000196</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>4920048000179</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>04557425000157</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>29521159000133</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>02003402013749</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>9400328000170</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>05896541000163</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>14345530000186</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>04356309000170</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>2300466000138</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>02030753000175</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>65591430000170</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>020678643000104</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>7942537000110</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>04597757000165</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>4365017001507</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>09281861000160</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>4365017000101</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>08427246000156</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>1761981000152</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>01744825000183</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>7137354000121</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>0478911000129</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>23768543000159</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>08826064000158</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>31002252000183</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>02439562000161</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>8216364000115</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>02943482000149</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>10815855000124</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>07026157000135</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>33018514000123</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>02798885000141</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>4381438000118</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>03487776000176</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>62784889000100</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>09306086000150</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>32247281000178</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>05511158000140</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>21804122000100</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>0202828000122</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>2936481000177</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>043635158000140</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>31416130000133</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>03255512000197</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>17214064000198</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>07298935000145</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>27590182000154</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>04254088000129</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>19905116000106</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>08082838000183</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>30998186000180</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>06789444000134</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>30544875000115</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>01118342000173</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>26048930000109</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>03193131000120</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>33863833000135</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>02729271000108</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>24093916000100</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>03867672000197</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>32006000000195</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>07635660000198</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>79766887000183</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>07399990000121</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>4049438000115</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>03193866000154</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>15040418000108</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>03183344000171</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>4218021000139</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>03535939000149</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>31297737000141</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>03922786000192</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>26584487000190</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>03638016000112</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>6216101000180</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>08961286000183</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>14220971000151</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>07079631000197</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>3308164000179</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>03761683000198</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>55064562000190</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>05491094000162</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>21588799000159</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>07131037000106</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>7553417000120</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>02003402013900</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>11285712000110</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>09219852000149</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>19429146000185</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>02651777000141</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>16579730000129</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>08154517000147</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>17994339000153</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>0703743000128</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>2272901000168</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>07208941000164</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>4822971000178</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>01367181000151</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>16976271000117</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>01139179000397</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>9557452000143</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>02901317000124</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>73846347000123</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>07104940000331</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>24095599000152</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>02627820000567</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
-        <v>27463119000238</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>09079214000170</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>7031916001804</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>03770422000134</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
-        <v>27406889000168</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>04983762000106</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
-        <v>2056113000134</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>03239181000100</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
-        <v>29888771000149</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>03030285000100</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>21822926000132</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>05887605000160</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
-        <v>11767743000108</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>05608209000156</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
-        <v>18455198000163</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>02452483000190</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>25136471000152</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>07498519000190</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
-        <v>67407882000185</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>08133236000108</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
-        <v>11221410000189</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>04858579000189</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>13928960000168</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>05460649000109</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
-        <v>28639948000100</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>0176164000174</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
-        <v>32669009000186</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>03339193000106</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>67480434000107</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>01401312000170</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>26656320000198</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>03484323000196</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
-        <v>4739679000196</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>03491159000144</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
-        <v>6224106000155</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>0376148000125</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
-        <v>30371145000160</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>08929748001076</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
-        <v>4562327000108</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>08166089000172</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
-        <v>23821956000150</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>06178769000180</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
-        <v>17096086000109</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>08829441000102</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
-        <v>32485369000128</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>04309411000114</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
-        <v>33441004000164</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>03941904000886</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
-        <v>13359755000129</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>06867569000135</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
-        <v>2334970000159</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>04828594000184</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
-        <v>10552124000133</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>07291854000113</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
-        <v>91928127000120</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>04046998000116</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
-        <v>21380013000103</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>03451626000102</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
-        <v>16896203000148</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>17584597000161</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>27967465000172</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>8869012000169</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>26580777000166</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>22649995000159</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>2063738000123</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>13485978000132</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>17895791000168</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>5342994000148</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>20142127000152</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>04244353000198</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
   </sheetData>
